--- a/biology/Botanique/Colline_Stréfi/Colline_Stréfi.xlsx
+++ b/biology/Botanique/Colline_Stréfi/Colline_Stréfi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Colline_Str%C3%A9fi</t>
+          <t>Colline_Stréfi</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-La colline Stréfi (en grec moderne : Λόφος Στρέφη) est une colline calcaire et un parc naturel urbain, située dans la capitale grecque d'Athènes. Elle est à la frontière du quartier de Neápoli et d'Exárcheia, au nord-ouest du mont Lycabette[1]. Son premier nom était Anchesmós (en grec moderne : Αγχεσμός). Elle s'élève à environ 150 m d'altitude[2].
+La colline Stréfi (en grec moderne : Λόφος Στρέφη) est une colline calcaire et un parc naturel urbain, située dans la capitale grecque d'Athènes. Elle est à la frontière du quartier de Neápoli et d'Exárcheia, au nord-ouest du mont Lycabette. Son premier nom était Anchesmós (en grec moderne : Αγχεσμός). Elle s'élève à environ 150 m d'altitude.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Colline_Str%C3%A9fi</t>
+          <t>Colline_Stréfi</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Durant le XIXe et au début du XXe siècle, la colline appartenait à la famille Stréfis, qui y exploite une carrière de pierre, jusque dans les années 1920. Après la fermeture de la carrière et la plantation d'arbres, la zone a été ouverte au public en 1938, ce qui en fait une destination populaire pour les sorties. En 1963, les Stréfis font don de la colline à la ville d'Athènes.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Colline_Str%C3%A9fi</t>
+          <t>Colline_Stréfi</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Aménagements</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La colline Stréfi offre une végétation luxuriante, des sentiers sinueux et des terrasses avec vue sur l'acropole et Lykavittos. En haut de la colline, il y a un petit théâtre en plein air, un terrain de basket-ball, une aire de jeux et une cafétéria.
 </t>
